--- a/biology/Microbiologie/Poste_de_sécurité_microbiologique/Poste_de_sécurité_microbiologique.xlsx
+++ b/biology/Microbiologie/Poste_de_sécurité_microbiologique/Poste_de_sécurité_microbiologique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Poste_de_s%C3%A9curit%C3%A9_microbiologique</t>
+          <t>Poste_de_sécurité_microbiologique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un poste de sécurité microbiologique (PSM) ou enceinte de sécurité biologique (ESB) est une enceinte destinée à assurer la protection de l'utilisateur et de l'environnement contre les dangers liés aux aérosols dans la manipulation de micro-organismes dangereux, l'air rejeté dans l'atmosphère étant filtré.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Poste_de_s%C3%A9curit%C3%A9_microbiologique</t>
+          <t>Poste_de_sécurité_microbiologique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Classes des PSM</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Dans le cadre de la manipulation de micro-organismes ou de produits pathogènes, il convient de mettre en œuvre une protection de l'opérateur et de son environnement. Celle-ci peut être conjuguée à une protection du produit manipulé, si sa sensibilité à la contamination particulaire l'exige.
 PSM de classe I : Construit de façon à protéger l'opérateur et à contrôler la fuite de contaminants particulaires aéroportés générés à l'intérieur du poste. L'air aspiré est rejeté dans l'ambiance de travail après passage au travers d'un filtre HEPA.
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Poste_de_s%C3%A9curit%C3%A9_microbiologique</t>
+          <t>Poste_de_sécurité_microbiologique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Critères de performance pour les postes de sécurité microbiologique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La norme définit les critères de performance minimaux pour les PSM utilisés avec des micro-organismes, en ce qui concerne la protection de l'opérateur, de l'environnement, de l'expérience et la contamination croisée à l'intérieur du poste de sécurité.
 Selon la norme EN 12469, la protection des opérateurs dans un PSM de classe II repose principalement sur la création d'une barrière d'air entre l'utilisateur et sa manipulation (confinement) et sur la filtration de l'air extrait sur des filtres à haute efficacité particulaire (H14, selon EN 1822-1).  
